--- a/Notes/PartLevels.xlsx
+++ b/Notes/PartLevels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PersonalFiles\Project\Kylin\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04925B81-EE87-41C0-AC9C-2AAD9C3564C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A92220-212F-46DA-831B-B38F85EB508A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16452" yWindow="2328" windowWidth="20664" windowHeight="11844" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17772" yWindow="3060" windowWidth="20160" windowHeight="11844" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="155">
   <si>
     <t>Item/Level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -609,9 +609,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>应对来自传感网的数据进行数据融合处理，使不同种类的数据可以在同一个平台被使用。</t>
-  </si>
-  <si>
     <t>a) +区域间采用单向的技术隔离手段</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -636,6 +633,72 @@
 d) 应使用专用设备和专用软件对控制设备进行更新； 
 e) 应保证控制设备在上线前经过安全性检测，避免控制设备固件中存在恶意代码程序。</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f) 应按照业务服务的重要程度分配带宽，优先保障重要业务。</t>
+  </si>
+  <si>
+    <t>c) 应在通信前基于密码技术对通信的双方进行验证或认证。
+d) 应基于硬件密码模块对重要通信过程进行密码运算和密钥管理。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+并在应用程序的所有执行环节进行动态可信验证，并进行动态关联感知。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e) 应能够在发现非授权设备私自联到内部网络的行为或内部用户非授权联到外部网络的行为时，对其进行有效阻断；
+f) 应采用可信验证机制对接入到网络中的设备进行可信验证，保证接入网络的设备真实可信。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e) +应在网络边界通过通信协议转换或通信协议隔离等方式进行数据交换。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g) 应对主体、客体设置安全标记，并依据安全标记和强制访问控制规则确定主体对客体的访问。</t>
+  </si>
+  <si>
+    <t>b) +增加记录主体标识和客体标识。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c) 在可能涉及法律责任认定的应用中，应采用密码技术提供数据原发证据和数据接收证据，实 现数据原发行为的抗抵赖和数据接收行为的抗抵赖。</t>
+  </si>
+  <si>
+    <t>d) 应建立异地灾难备份中心，提供业务应用的实时切换。</t>
+  </si>
+  <si>
+    <t>g) 应保证系统范围内的时间由唯一确定的时钟产生，以保证各种数据的管理和分析在时间上的 一致性。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f) 应提供对虚拟资源的主体和客体设置安全标记的能力，保证云服务客户可以依据安全标记和强制访问控制规则确定主体对客体的访问； 
+g) 应提供通信协议转换或通信协议隔离等的数据交换方式，保证云服务客户可以根据业务需求自主选择边界数据交换方式； 
+h) 应为第四级业务应用系统划分独立的资源池。 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c) 应保证移动终端只用于处理指定业务。</t>
+  </si>
+  <si>
+    <t>d) 应具有接受移动终端管理服务端推送的移动应用软件管理策略，并根据该策略对软件实施管控的能力。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a) 应对来自传感网的数据进行数据融合处理，使不同种类的数据可以在同一个平台被使用。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b) 应对不同数据之间的依赖关系和制约关系等进行智能处理，如一类数据达到某个门限时可以影响对另一类数据采集终端的管理指令。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a) + 区域间应采用符合国家或行业规定的
+专用产品实现单向安全隔离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c) 涉及实时控制和数据传输的工业控制系统禁止使用拨号访问服务。</t>
   </si>
 </sst>
 </file>
@@ -1014,11 +1077,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z133"/>
+  <dimension ref="A1:Z134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C74" sqref="C74"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1117,7 +1180,7 @@
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
     </row>
-    <row r="4" spans="1:26" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -1127,6 +1190,9 @@
       <c r="C4" s="8"/>
       <c r="D4" s="6" t="s">
         <v>85</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>139</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -1163,6 +1229,9 @@
       <c r="D5" s="8" t="s">
         <v>86</v>
       </c>
+      <c r="E5" s="8" t="s">
+        <v>140</v>
+      </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -1195,6 +1264,9 @@
       <c r="D6" s="6" t="s">
         <v>83</v>
       </c>
+      <c r="E6" s="6" t="s">
+        <v>138</v>
+      </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -1253,6 +1325,9 @@
       <c r="D8" s="6" t="s">
         <v>88</v>
       </c>
+      <c r="E8" s="6" t="s">
+        <v>141</v>
+      </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -1288,6 +1363,9 @@
       <c r="D9" s="6" t="s">
         <v>89</v>
       </c>
+      <c r="E9" s="6" t="s">
+        <v>142</v>
+      </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -1323,6 +1401,9 @@
       <c r="D10" s="8" t="s">
         <v>86</v>
       </c>
+      <c r="E10" s="8" t="s">
+        <v>140</v>
+      </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -1512,6 +1593,9 @@
       <c r="D16" s="6" t="s">
         <v>97</v>
       </c>
+      <c r="E16" s="6" t="s">
+        <v>143</v>
+      </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -1614,6 +1698,9 @@
       <c r="D19" s="8" t="s">
         <v>86</v>
       </c>
+      <c r="E19" s="8" t="s">
+        <v>140</v>
+      </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -1646,6 +1733,9 @@
       <c r="D20" s="6" t="s">
         <v>102</v>
       </c>
+      <c r="E20" s="6" t="s">
+        <v>144</v>
+      </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -1681,6 +1771,9 @@
       <c r="D21" s="6" t="s">
         <v>105</v>
       </c>
+      <c r="E21" s="6" t="s">
+        <v>146</v>
+      </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -1803,6 +1896,9 @@
       <c r="D25" s="6" t="s">
         <v>104</v>
       </c>
+      <c r="E25" s="6" t="s">
+        <v>145</v>
+      </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -1825,9 +1921,12 @@
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>54</v>
+    <row r="26" spans="1:26" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>143</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -1851,12 +1950,9 @@
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
     </row>
-    <row r="27" spans="1:26" ht="96.6" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>58</v>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -1880,12 +1976,12 @@
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
     </row>
-    <row r="28" spans="1:26" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
@@ -1909,12 +2005,12 @@
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
     </row>
-    <row r="29" spans="1:26" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>109</v>
+        <v>56</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
@@ -1938,12 +2034,12 @@
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
     </row>
-    <row r="30" spans="1:26" ht="179.4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -1967,7 +2063,16 @@
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" ht="179.4" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>147</v>
+      </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -1991,9 +2096,6 @@
       <c r="Z31" s="1"/>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -2017,8 +2119,8 @@
       <c r="Z32" s="1"/>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
-        <v>2</v>
+      <c r="A33" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
@@ -2042,18 +2144,9 @@
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
     </row>
-    <row r="34" spans="1:26" ht="82.8" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>112</v>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>2</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
@@ -2077,9 +2170,21 @@
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>5</v>
+    <row r="35" spans="1:26" ht="110.4" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>148</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -2103,15 +2208,9 @@
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
     </row>
-    <row r="36" spans="1:26" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>62</v>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -2135,15 +2234,15 @@
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
     </row>
-    <row r="37" spans="1:26" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
@@ -2167,12 +2266,15 @@
       <c r="Y37" s="1"/>
       <c r="Z37" s="1"/>
     </row>
-    <row r="38" spans="1:26" ht="69" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>61</v>
+        <v>63</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
@@ -2196,9 +2298,12 @@
       <c r="Y38" s="1"/>
       <c r="Z38" s="1"/>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
-        <v>11</v>
+    <row r="39" spans="1:26" ht="69" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
@@ -2222,12 +2327,9 @@
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
     </row>
-    <row r="40" spans="1:26" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>25</v>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -2251,18 +2353,12 @@
       <c r="Y40" s="1"/>
       <c r="Z40" s="1"/>
     </row>
-    <row r="41" spans="1:26" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>116</v>
+        <v>25</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
@@ -2286,15 +2382,18 @@
       <c r="Y41" s="1"/>
       <c r="Z41" s="1"/>
     </row>
-    <row r="42" spans="1:26" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>64</v>
+        <v>26</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
@@ -2318,15 +2417,15 @@
       <c r="Y42" s="1"/>
       <c r="Z42" s="1"/>
     </row>
-    <row r="43" spans="1:26" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
@@ -2350,12 +2449,15 @@
       <c r="Y43" s="1"/>
       <c r="Z43" s="1"/>
     </row>
-    <row r="44" spans="1:26" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>118</v>
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
@@ -2379,12 +2481,12 @@
       <c r="Y44" s="1"/>
       <c r="Z44" s="1"/>
     </row>
-    <row r="45" spans="1:26" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>117</v>
+        <v>51</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>67</v>
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
@@ -2408,12 +2510,12 @@
       <c r="Y45" s="1"/>
       <c r="Z45" s="1"/>
     </row>
-    <row r="46" spans="1:26" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
@@ -2437,7 +2539,13 @@
       <c r="Y46" s="1"/>
       <c r="Z46" s="1"/>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>114</v>
+      </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
@@ -2461,9 +2569,6 @@
       <c r="Z47" s="1"/>
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
@@ -2487,8 +2592,8 @@
       <c r="Z48" s="1"/>
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
-        <v>5</v>
+      <c r="A49" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
@@ -2512,12 +2617,9 @@
       <c r="Y49" s="1"/>
       <c r="Z49" s="1"/>
     </row>
-    <row r="50" spans="1:26" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>29</v>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
@@ -2541,15 +2643,12 @@
       <c r="Y50" s="1"/>
       <c r="Z50" s="1"/>
     </row>
-    <row r="51" spans="1:26" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:26" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>119</v>
+        <v>29</v>
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
@@ -2573,15 +2672,15 @@
       <c r="Y51" s="1"/>
       <c r="Z51" s="1"/>
     </row>
-    <row r="52" spans="1:26" ht="138" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:26" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>120</v>
+        <v>8</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>119</v>
       </c>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
@@ -2605,9 +2704,15 @@
       <c r="Y52" s="1"/>
       <c r="Z52" s="1"/>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
-        <v>11</v>
+    <row r="53" spans="1:26" ht="138" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>120</v>
       </c>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
@@ -2631,18 +2736,9 @@
       <c r="Y53" s="1"/>
       <c r="Z53" s="1"/>
     </row>
-    <row r="54" spans="1:26" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A54" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>123</v>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
@@ -2666,12 +2762,21 @@
       <c r="Y54" s="1"/>
       <c r="Z54" s="1"/>
     </row>
-    <row r="55" spans="1:26" ht="69" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
-        <v>122</v>
+        <v>71</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>73</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>121</v>
+        <v>123</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>150</v>
       </c>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
@@ -2695,9 +2800,15 @@
       <c r="Y55" s="1"/>
       <c r="Z55" s="1"/>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
-        <v>70</v>
+    <row r="56" spans="1:26" ht="69" x14ac:dyDescent="0.25">
+      <c r="A56" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>149</v>
       </c>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
@@ -2721,18 +2832,9 @@
       <c r="Y56" s="1"/>
       <c r="Z56" s="1"/>
     </row>
-    <row r="57" spans="1:26" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>124</v>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
+        <v>70</v>
       </c>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
@@ -2756,12 +2858,18 @@
       <c r="Y57" s="1"/>
       <c r="Z57" s="1"/>
     </row>
-    <row r="58" spans="1:26" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:26" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>75</v>
+        <v>31</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>124</v>
       </c>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
@@ -2785,7 +2893,13 @@
       <c r="Y58" s="1"/>
       <c r="Z58" s="1"/>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:26" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>76</v>
+      </c>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
@@ -2809,9 +2923,6 @@
       <c r="Z59" s="1"/>
     </row>
     <row r="60" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A60" s="4" t="s">
-        <v>32</v>
-      </c>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
@@ -2835,8 +2946,8 @@
       <c r="Z60" s="1"/>
     </row>
     <row r="61" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A61" s="5" t="s">
-        <v>5</v>
+      <c r="A61" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
@@ -2861,11 +2972,8 @@
       <c r="Z61" s="1"/>
     </row>
     <row r="62" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>34</v>
+      <c r="A62" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
@@ -2889,12 +2997,12 @@
       <c r="Y62" s="1"/>
       <c r="Z62" s="1"/>
     </row>
-    <row r="63" spans="1:26" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>77</v>
+        <v>33</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
@@ -2918,9 +3026,12 @@
       <c r="Y63" s="1"/>
       <c r="Z63" s="1"/>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="s">
-        <v>11</v>
+    <row r="64" spans="1:26" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
@@ -2944,12 +3055,9 @@
       <c r="Y64" s="1"/>
       <c r="Z64" s="1"/>
     </row>
-    <row r="65" spans="1:26" ht="82.8" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>131</v>
+    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
@@ -2973,12 +3081,12 @@
       <c r="Y65" s="1"/>
       <c r="Z65" s="1"/>
     </row>
-    <row r="66" spans="1:26" ht="124.2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
@@ -3002,12 +3110,12 @@
       <c r="Y66" s="1"/>
       <c r="Z66" s="1"/>
     </row>
-    <row r="67" spans="1:26" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
@@ -3031,12 +3139,12 @@
       <c r="Y67" s="1"/>
       <c r="Z67" s="1"/>
     </row>
-    <row r="68" spans="1:26" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
@@ -3060,7 +3168,16 @@
       <c r="Y68" s="1"/>
       <c r="Z68" s="1"/>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>152</v>
+      </c>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
@@ -3084,9 +3201,6 @@
       <c r="Z69" s="1"/>
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A70" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
@@ -3110,8 +3224,8 @@
       <c r="Z70" s="1"/>
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A71" s="5" t="s">
-        <v>2</v>
+      <c r="A71" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
@@ -3135,18 +3249,9 @@
       <c r="Y71" s="1"/>
       <c r="Z71" s="1"/>
     </row>
-    <row r="72" spans="1:26" ht="69" x14ac:dyDescent="0.25">
-      <c r="A72" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B72" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>133</v>
+    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A72" s="5" t="s">
+        <v>2</v>
       </c>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
@@ -3170,9 +3275,21 @@
       <c r="Y72" s="1"/>
       <c r="Z72" s="1"/>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A73" s="5" t="s">
-        <v>5</v>
+    <row r="73" spans="1:26" ht="69" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>153</v>
       </c>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
@@ -3196,15 +3313,9 @@
       <c r="Y73" s="1"/>
       <c r="Z73" s="1"/>
     </row>
-    <row r="74" spans="1:26" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A74" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B74" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C74" s="6" t="s">
-        <v>79</v>
+    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A74" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
@@ -3228,18 +3339,15 @@
       <c r="Y74" s="1"/>
       <c r="Z74" s="1"/>
     </row>
-    <row r="75" spans="1:26" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:26" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>136</v>
+        <v>8</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
@@ -3263,15 +3371,18 @@
       <c r="Y75" s="1"/>
       <c r="Z75" s="1"/>
     </row>
-    <row r="76" spans="1:26" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:26" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>82</v>
+        <v>135</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="D76" t="s">
-        <v>134</v>
+        <v>81</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>136</v>
       </c>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
@@ -3295,9 +3406,18 @@
       <c r="Y76" s="1"/>
       <c r="Z76" s="1"/>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A77" s="5" t="s">
-        <v>11</v>
+    <row r="77" spans="1:26" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>154</v>
       </c>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
@@ -3321,15 +3441,9 @@
       <c r="Y77" s="1"/>
       <c r="Z77" s="1"/>
     </row>
-    <row r="78" spans="1:26" ht="110.4" x14ac:dyDescent="0.25">
-      <c r="A78" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B78" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D78" s="6" t="s">
-        <v>138</v>
+    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A78" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
@@ -3353,7 +3467,16 @@
       <c r="Y78" s="1"/>
       <c r="Z78" s="1"/>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:26" ht="110.4" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>137</v>
+      </c>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
@@ -4618,6 +4741,29 @@
       <c r="Y133" s="1"/>
       <c r="Z133" s="1"/>
     </row>
+    <row r="134" spans="6:26" x14ac:dyDescent="0.25">
+      <c r="F134" s="1"/>
+      <c r="G134" s="1"/>
+      <c r="H134" s="1"/>
+      <c r="I134" s="1"/>
+      <c r="J134" s="1"/>
+      <c r="K134" s="1"/>
+      <c r="L134" s="1"/>
+      <c r="M134" s="1"/>
+      <c r="N134" s="1"/>
+      <c r="O134" s="1"/>
+      <c r="P134" s="1"/>
+      <c r="Q134" s="1"/>
+      <c r="R134" s="1"/>
+      <c r="S134" s="1"/>
+      <c r="T134" s="1"/>
+      <c r="U134" s="1"/>
+      <c r="V134" s="1"/>
+      <c r="W134" s="1"/>
+      <c r="X134" s="1"/>
+      <c r="Y134" s="1"/>
+      <c r="Z134" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Notes/PartLevels.xlsx
+++ b/Notes/PartLevels.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PersonalFiles\Project\Kylin\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2032311E-B10F-4D2C-BADA-4BFD0BB23BBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E64106E-0559-4363-A22A-5BFC6917FC49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="27096" windowHeight="16416" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="27096" windowHeight="16416" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="1" r:id="rId1"/>
     <sheet name="Total" sheetId="3" r:id="rId2"/>
+    <sheet name="Methods" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="258">
   <si>
     <t>通用</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -700,6 +701,450 @@
   </si>
   <si>
     <t>感知节点设备安全</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Purpose</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Action</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Link</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户仅允许特定命令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录用户操作历史</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可信验证策略</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定时备份记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建立备份目录，/etc/crontab编辑定时任务。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d) 应对审计进程进行保护，防止未经授权的中断。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防止审计中断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>限制远程登录可用命令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂未找到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查网络连接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>netstat -tun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.yayihouse.com/yayishuwu/chapter/2095</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应保证有线网络与无线网络边界之间的访问和数据流通过无线接入安全网关设备。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>边界防护*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全审计*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恶意代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>垃圾邮件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭Sendmail的Relay；打开Sendmail的SMTP认证；在Sendmail中添加RBL功能；关闭Open Proxy；关闭外部的25端口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://news.5dmail.net/html/2006-10-12/20061012145139.htm</t>
+  </si>
+  <si>
+    <t>通信、访问控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>firewalld 和 iptables</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.linuxprobe.com/chapter-08.html</t>
+  </si>
+  <si>
+    <t>用户权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非wheel组用户禁用su</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用PAM认证模块禁止wheel组之外的用户su为root</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拨号使用控制*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移除sudo用户组；确认/etc/sudoers配置策略；编辑用户安全策略配置
+在/etc/sudoers.d/目录下建立与用户同名的策略文件：
+对进程控制，umask权限掩码，在/etc/sudoers.d/显式给予权限。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/weixin_45582052/article/details/108742212</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/saga1979/article/details/87929605
+https://blog.51cto.com/chentianwang/2062053
+https://www.cnblogs.com/fengdejiyixx/p/10773731.htm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*外部程序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>限制root远程登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a) 应在工业控制系统与企业其他系统之间部署访问控制设备，配置访问控制策略，禁止任何穿越区域边界的E-Mail、Web、Telnet、Rlogin、FTP等通用网络服务。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件Email访问控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/my98800/article/details/78592492
+https://blog.csdn.net/ywd1992/article/details/80401630</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTP访问控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25端口为SMTP（Simple Mail Transfer Protocol，简单邮件传输协议）
+109端口是为POP2（Post Office Protocol Version 2，邮局协议2）
+110端口是为POP3（Post Office Protocol Version 3，邮局协议3）
+143端口是为IMAP（INTERNET MESSAGE ACCESS PROTOCOL，交互邮件访问协议）
+firewalld和iptables 限制端口和IP访问策略。
+netstat -tun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>禁止UID为0的用户存在多个；删除无关帐号；设置账户组；禁止存在空密码账户；避免账号共享；口令锁定策略；口令生存期；口令复杂度；口令重复次数限制；登录超时设定。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统安全加固.xls
+Linux-8 15 18 24 29 1 7 9 36 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/etc/profile增加脚本代码。日志加密可以参考KP-ABE密钥策略属性加密。
+启用远程日志、记录安全事件日志、记录账户登录日志、记录su命令使用情况、记录cron行为日志。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/jctian000/article/details/81773255
+https://blog.csdn.net/bandaoyu/article/details/90341396
+系统安全加固.xls
+Linux-13 17 34 38 44</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统安全加固.xls
+Linux-41</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Telnet访问控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>监护进程检测主进程，cron定时任务。
+日志文件安全</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统安全加固.xls
+Linux-35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改/etc/ssh/sshd_config的PermitRootLogin字段为no并service sshd restart
+限制SSH、Telnet、FTP远程登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.jianshu.com/p/ec147e6d462e
+系统安全加固.xls
+Linux-3 11 37</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rlogin访问控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>513端口，firewalld和iptables限制端口和IP访问策略。
+netstat -tun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*手工确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补丁升级安装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c) 应采取密码技术或其他技术手段防止虚拟机镜像、快照中可能存在的敏感资源被非法访问。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rsync + crontab 定期本地/远程备份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抗数据重放*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>禁用USB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://qastack.cn/ubuntu/342061/power-on-off-usb-ports</t>
+  </si>
+  <si>
+    <t>lsusb; echo 0 | sudo tee /sys/bus/usb/devices/usb`N`/power/autosuspend_delay_ms
+或udisksctl unmount -b /dev/sdb1 &amp;&amp; udisksctl power-off -b /dev/sdb1
+Unmounted /dev/sdb1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>禁用网口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/qq_34829953/article/details/73139499</t>
+  </si>
+  <si>
+    <t>ifconfig -a查看/sys/class/net和/proc/net/dev 关闭开启：ifdown eth (ifup) / ifconfig eth down(up)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入侵防范*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最小安装，关闭不必要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭不必要启动项，关闭不必要服务和端口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置用户最小授权</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统安全加固.xls
+Linux-16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统安全加固.xls
+Linux-33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统安全加固.xls
+Linux-32 40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络SSID监测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b) 应保证存有敏感数据的存储空间被释放或重新分配前得到完全清除。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鉴别信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统备份和数据备份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码技术和生物识别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过滤非法节点和数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定签名证书可运行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPM包验证和数字签名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://c.biancheng.net/view/820.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定开发者可安装运行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23端口，firewalld和iptables限制端口和IP访问策略。
+Netstat -tun
+/etc/xinetd.d/ekrb5-telnet 将disable=no改为disable=yes；/etc/service 将telnet相关端口更改为自定义 service xinetd restart
+Telnet Banner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/weixin_35830270/article/details/116623471
+Linux-43</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统漏洞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>核心转储，syn泛洪攻击，心血漏洞，Bash安全漏洞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Linux-12 47 51 52</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21端口，firewalld和iptables限制端口和IP访问策略。
+netstat -tun
+/etc/vsftpd/vsftpd.conf 修改默认端口号 service vsftpd restart
+FTP安全配置；限制root登录FTP；限制FTP访问目录，禁止匿名FTP，FTP Banner。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.cnblogs.com/orzlin/p/5600529.html
+系统安全加固.xls
+Linux-31 37 39 42 27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络通信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件与目录缺省权限控制、账号文件权限，关键文件属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Linux-5 6 26 45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置屏幕锁定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Linux-30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远程维护，SSH Banner，SSH Banner警告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Linux-4 14 19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NFS服务限制，NTP配置，修改SNMP默认Community</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Linux-21 25 28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>禁止ICMP重定向，禁止IP路由转发，控制远程访问IP地址，禁止IP源路由，更改主机解析地址顺序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Linux-26 20 23 46 48 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1835,8 +2280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52B1A045-0969-4969-B23D-7A444C798A7E}">
   <dimension ref="A1:E78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView topLeftCell="A43" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1890,12 +2335,12 @@
         <v>46</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>99</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="69" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>43</v>
+        <v>173</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>60</v>
@@ -1917,15 +2362,15 @@
     </row>
     <row r="7" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>6</v>
+        <v>172</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>28</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>81</v>
+        <v>184</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>132</v>
@@ -2028,7 +2473,7 @@
         <v>7</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>79</v>
+        <v>190</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>78</v>
@@ -2077,12 +2522,12 @@
         <v>64</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>114</v>
+        <v>209</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>125</v>
+        <v>211</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>127</v>
@@ -2118,7 +2563,7 @@
     </row>
     <row r="25" spans="1:5" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>12</v>
+        <v>218</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>89</v>
@@ -2214,7 +2659,7 @@
         <v>106</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>105</v>
+        <v>226</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="55.2" x14ac:dyDescent="0.25">
@@ -2437,4 +2882,390 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12A16F03-21AF-4C99-987E-D76AB0EA733D}">
+  <dimension ref="A1:D35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.77734375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="80.77734375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="10.77734375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="30.77734375" style="6" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="69" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="69" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>250</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>